--- a/Excel/PlayerNumericConfig.xlsx
+++ b/Excel/PlayerNumericConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Unity\ETIdleGame\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5FFCE3-1A59-4161-8A53-23A9D0881266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C05DD88-20BA-442A-B4A1-2254E55F66C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Id</t>
   </si>
@@ -137,6 +137,14 @@
   </si>
   <si>
     <t>经验值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大法力值</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -622,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L23"/>
+  <dimension ref="B2:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -772,13 +780,13 @@
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="1">
-        <v>1013</v>
+        <v>1002</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F9" s="6">
         <v>1</v>
@@ -795,12 +803,12 @@
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="1">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="6">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1">
         <v>100</v>
       </c>
       <c r="F10" s="6">
@@ -816,88 +824,100 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
       <c r="C11" s="1">
+        <v>1004</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1">
+        <v>100</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="1">
+        <v>1014</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="6">
+        <v>100</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C13" s="1">
         <v>1015</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E13" s="10">
         <v>100</v>
       </c>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="1">
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C14" s="1">
         <v>1016</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="10">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>1</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C14" s="10">
-        <v>3001</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="10">
-        <v>1</v>
-      </c>
-      <c r="F14" s="10">
-        <v>0</v>
-      </c>
-      <c r="G14" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C15" s="10">
-        <v>3002</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="10">
-        <v>1</v>
-      </c>
-      <c r="F15" s="10">
-        <v>0</v>
-      </c>
-      <c r="G15" s="10">
-        <v>1</v>
-      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C16" s="10">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16" s="10">
         <v>1</v>
@@ -911,10 +931,10 @@
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="10">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E17" s="10">
         <v>1</v>
@@ -928,47 +948,47 @@
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18" s="10">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E18" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F18" s="10">
         <v>0</v>
       </c>
       <c r="G18" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19" s="10">
-        <v>3006</v>
+        <v>3004</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E19" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F19" s="10">
         <v>0</v>
       </c>
       <c r="G19" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C20" s="10">
-        <v>3007</v>
+        <v>3005</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E20" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F20" s="10">
         <v>0</v>
@@ -979,13 +999,13 @@
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="10">
-        <v>3008</v>
+        <v>3006</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E21" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F21" s="10">
         <v>0</v>
@@ -996,23 +1016,57 @@
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C22" s="10">
+        <v>3007</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C23" s="10">
+        <v>3008</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C24" s="10">
         <v>3009</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D24" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="10">
-        <v>0</v>
-      </c>
-      <c r="F22" s="10">
-        <v>0</v>
-      </c>
-      <c r="G22" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D23" s="10"/>
+      <c r="E24" s="10">
+        <v>0</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D25" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
